--- a/public/datasets/updated details.xlsx
+++ b/public/datasets/updated details.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a79a1ab7723a8c73/GitHub/SelfMed/public/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_5D8D22EB0283CEA2D343F47219A836FD79714630" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F5ABDC1-4C01-4ACD-AC5B-A6A67AC5A552}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="240">
   <si>
     <t>disease</t>
   </si>
@@ -31,9 +37,6 @@
     <t>overview</t>
   </si>
   <si>
-    <t>symptoms</t>
-  </si>
-  <si>
     <t>remedies</t>
   </si>
   <si>
@@ -358,282 +361,6 @@
     <t>https://www.mayoclinic.org/diseases-conditions/wrist-pain/symptoms-causes/syc-20366213</t>
   </si>
   <si>
-    <t>Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.</t>
-  </si>
-  <si>
-    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.</t>
-  </si>
-  <si>
-    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.</t>
-  </si>
-  <si>
-    <t>Allergies occur when your immune system reacts to a foreign substance â€” such as pollen, bee venom or pet dander â€” or a food that doesn't cause a reaction in most people.</t>
-  </si>
-  <si>
-    <t>Hair loss (alopecia) can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.</t>
-  </si>
-  <si>
-    <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.</t>
-  </si>
-  <si>
-    <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.</t>
-  </si>
-  <si>
-    <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.</t>
-  </si>
-  <si>
-    <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin â€” places where clothing seams are most likely to touch skin.</t>
-  </si>
-  <si>
-    <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.</t>
-  </si>
-  <si>
-    <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.</t>
-  </si>
-  <si>
-    <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.</t>
-  </si>
-  <si>
-    <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living.</t>
-  </si>
-  <si>
-    <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.</t>
-  </si>
-  <si>
-    <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.</t>
-  </si>
-  <si>
-    <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.</t>
-  </si>
-  <si>
-    <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.</t>
-  </si>
-  <si>
-    <t>Diarrhea â€” loose, watery and possibly more-frequent bowel movements â€” is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.</t>
-  </si>
-  <si>
-    <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.</t>
-  </si>
-  <si>
-    <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.</t>
-  </si>
-  <si>
-    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.</t>
-  </si>
-  <si>
-    <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.</t>
-  </si>
-  <si>
-    <t>Hiccups are involuntary contractions of the diaphragm â€” the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.</t>
-  </si>
-  <si>
-    <t>Indigestion â€” also called dyspepsia or an upset stomach â€” is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.</t>
-  </si>
-  <si>
-    <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.</t>
-  </si>
-  <si>
-    <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.</t>
-  </si>
-  <si>
-    <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.</t>
-  </si>
-  <si>
-    <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.</t>
-  </si>
-  <si>
-    <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.</t>
-  </si>
-  <si>
-    <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.</t>
-  </si>
-  <si>
-    <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye â€” or the shape of certain parts of the eye â€” causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.</t>
-  </si>
-  <si>
-    <t>Neck pain is common. Poor posture â€” whether from leaning over a computer or hunching over a workbench â€” strains neck muscles. Osteoarthritis also is a common cause of neck pain.</t>
-  </si>
-  <si>
-    <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.</t>
-  </si>
-  <si>
-    <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress.</t>
-  </si>
-  <si>
-    <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying.</t>
-  </si>
-  <si>
-    <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink.</t>
-  </si>
-  <si>
-    <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body.</t>
-  </si>
-  <si>
-    <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome.</t>
-  </si>
-  <si>
-    <t>Heat rash â€” also known as prickly heat and miliaria â€” isn't just for babies. It affects adults, too, especially in hot, humid conditions.</t>
-  </si>
-  <si>
-    <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner.</t>
-  </si>
-  <si>
-    <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others.</t>
-  </si>
-  <si>
-    <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long.</t>
-  </si>
-  <si>
-    <t>A tension-type headache (TTH) is generally a mild to moderate pain that's often described as feeling like a tight band around the head. A tension-type headache is the most common type of headache, yet its causes aren't well understood.</t>
-  </si>
-  <si>
-    <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain can also result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome.</t>
-  </si>
-  <si>
-    <t>['A burning sensation in your chest (heartburn), usually after eating, which might be worse at night or while lying down', 'Backwash (regurgitation) of food or sour liquid', 'Upper abdominal or chest pain', 'Trouble swallowing (dysphagia)', 'Sensation of a lump in your throat']</t>
-  </si>
-  <si>
-    <t>['Whiteheads (closed plugged pores)', 'Blackheads (open plugged pores)', 'Small red, tender bumps (papules)', 'Pimples (pustules), which are papules with pus at their tips', 'Large, solid, painful lumps under the skin (nodules)', 'Painful, pus-filled lumps under the skin (cystic lesions)']</t>
-  </si>
-  <si>
-    <t>['Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)', 'Blocked or stuffy nose (congestion) causing difficulty breathing through your nose', 'Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over']</t>
-  </si>
-  <si>
-    <t>['Sneezing', 'Itching of the nose, eyes or roof of the mouth', 'Runny, stuffy nose', 'Watery, red or swollen eyes (conjunctivitis)']</t>
-  </si>
-  <si>
-    <t>['Gradual thinning on top of head. This is the most common type of hair loss, affecting people as they age. In men, hair often begins to recede at the hairline on the forehead. Women typically have a broadening of the part in their hair. An increasingly common hair loss pattern in older women is a receding hairline (frontal fibrosing alopecia).', 'Circular or patchy bald spots. Some people lose hair in circular or patchy bald spots on the scalp, beard or eyebrows. Your skin may become itchy or painful before the hair falls out.', 'Sudden loosening of hair. A physical or emotional shock can cause hair to loosen. Handfuls of hair may come out when combing or washing your hair or even after gentle tugging. This type of hair loss usually causes overall hair thinning but is temporary.', 'Full-body hair loss. Some conditions and medical treatments, such as chemotherapy for cancer, can result in the loss of hair all over your body. The hair usually grows back.', 'Patches of scaling that spread over the scalp. This is a sign of ringworm. It may be accompanied by broken hair, redness, swelling and, at times, oozing.']</t>
-  </si>
-  <si>
-    <t>['Food. The breakdown of food particles in and around your teeth can increase bacteria and cause a foul odor. Eating certain foods, such as onions, garlic and spices, also can cause bad breath. After you digest these foods, they enter your bloodstream, are carried to your lungs and affect your breath.', 'Tobacco products. Smoking causes its own unpleasant mouth odor. Smokers and oral tobacco users are also more likely to have gum disease, another source of bad breath.', "Poor dental hygiene. If you don't brush and floss daily, food particles remain in your mouth, causing bad breath. A colorless, sticky film of bacteria (plaque) forms on your teeth. If not brushed away, plaque can irritate your gums and eventually form plaque-filled pockets between your teeth and gums (periodontitis). Your tongue also can trap bacteria that produce odors. Dentures that aren't cleaned regularly or don't fit properly can harbor odor-causing bacteria and food particles.", 'Dry mouth. Saliva helps cleanse your mouth, removing particles that cause bad odors. A condition called dry mouth or xerostomia (zeerâ€“o-STOE-me-uh) can contribute to bad breath because production of saliva is decreased. Dry mouth naturally occurs during sleep, leading to "morning breath," and it worsens if you sleep with your mouth open. Chronic dry mouth can be caused by a problem with your salivary glands and some diseases.', 'Medications. Some medications can indirectly produce bad breath by contributing to dry mouth. Others can be broken down in the body to release chemicals that can be carried on your breath.', 'Infections in your mouth. Bad breath can be caused by surgical wounds after oral surgery, such as tooth removal, or as a result of tooth decay, gum disease or mouth sores.', 'Other mouth, nose and throat conditions. Bad breath can occasionally stem from small stones that form in the tonsils and are covered with bacteria that produce odor. Infections or chronic inflammation in the nose, sinuses or throat, which can contribute to postnasal drip, also can cause bad breath.', 'Other causes. Diseases, such as some cancers, and conditions such as metabolic disorders, can cause a distinctive breath odor as a result of chemicals they produce. Chronic reflux of stomach acids (gastroesophageal reflux disease, or GERD) can be associated with bad breath. Bad breath in young children can be caused by a foreign body, such as a piece of food, lodged in a nostril.']</t>
-  </si>
-  <si>
-    <t>['Mild swelling', 'Saggy or loose skin', 'Dark circles']</t>
-  </si>
-  <si>
-    <t>['Instant, sharp burning pain at the sting site', 'A red welt at the sting area', 'Slight swelling around the sting area']</t>
-  </si>
-  <si>
-    <t>['War refugees', 'Homeless people', 'People displaced by natural disasters']</t>
-  </si>
-  <si>
-    <t>['You suddenly begin to sweat much more or less than usual', 'Sweating disrupts your daily routine', 'You experience night sweats for no apparent reason', 'You notice a change in your body odor']</t>
-  </si>
-  <si>
-    <t>['A thick, rough area of skin', 'A hardened, raised bump', 'Tenderness or pain under the skin', 'Flaky, dry or waxy skin']</t>
-  </si>
-  <si>
-    <t>['Toothache, spontaneous pain or pain that occurs without any apparent cause', 'Tooth sensitivity', 'Mild to sharp pain when eating or drinking something sweet, hot or cold', 'Visible holes or pits in your teeth', 'Brown, black or white staining on any surface of a tooth', 'Pain when you bite down']</t>
-  </si>
-  <si>
-    <t>['Feelings of sadness, tearfulness, emptiness or hopelessness', 'Angry outbursts, irritability or frustration, even over small matters', 'Loss of interest or pleasure in most or all normal activities, such as sex, hobbies or sports', 'Sleep disturbances, including insomnia or sleeping too much', 'Tiredness and lack of energy, so even small tasks take extra effort', 'Reduced appetite and weight loss or increased cravings for food and weight gain', 'Anxiety, agitation or restlessness', 'Slowed thinking, speaking or body movements', 'Feelings of worthlessness or guilt, fixating on past failures or self-blame', 'Trouble thinking, concentrating, making decisions and remembering things', 'Frequent or recurrent thoughts of death, suicidal thoughts, suicide attempts or suicide', 'Unexplained physical problems, such as back pain or headaches']</t>
-  </si>
-  <si>
-    <t>['Runny or stuffy nose', 'Sore throat', 'Cough', 'Congestion', 'Slight body aches or a mild headache', 'Sneezing', 'Low-grade fever', 'Generally feeling unwell']</t>
-  </si>
-  <si>
-    <t>['Passing fewer than three stools a week', 'Having lumpy or hard stools', 'Straining to have bowel movements', "Feeling as though there's a blockage in your rectum that prevents bowel movements", "Feeling as though you can't completely empty the stool from your rectum", 'Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum']</t>
-  </si>
-  <si>
-    <t>['Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders', 'Itchy scalp', 'Scaly, crusty scalp in infants with cradle cap']</t>
-  </si>
-  <si>
-    <t>['Headache', 'Muscle, bone or joint pain', 'Nausea', 'Vomiting', 'Pain behind the eyes', 'Swollen glands', 'Rash']</t>
-  </si>
-  <si>
-    <t>['Abdominal cramps or pain', 'Bloating', 'Nausea', 'Vomiting', 'Fever', 'Blood in the stool', 'Mucus in the stool', 'Urgent need to have a bowel movement', 'Loose stools', 'More-frequent bowel movements']</t>
-  </si>
-  <si>
-    <t>['A false sense of motion or spinning (vertigo)', 'Lightheadedness or feeling faint', 'Unsteadiness or a loss of balance', 'A feeling of floating, wooziness or heavy-headedness']</t>
-  </si>
-  <si>
-    <t>['Nearby objects may appear blurry', 'You need to squint to see clearly', 'You have eyestrain, including burning eyes, and aching in or around the eyes', 'You have general eye discomfort or a headache after doing close tasks, such as reading, writing, computer work or drawing, for a time']</t>
-  </si>
-  <si>
-    <t>['Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events', 'Overthinking plans and solutions to all possible worst-case outcomes', "Perceiving situations and events as threatening, even when they aren't", 'Difficulty handling uncertainty', 'Indecisiveness and fear of making the wrong decision', 'Inability to set aside or let go of a worry', 'Inability to relax, feeling restless, and feeling keyed up or on edge', 'Difficulty concentrating, or the feeling that your mind "goes blank"']</t>
-  </si>
-  <si>
-    <t>['Itching. The most common symptom of head lice is itching on the scalp, neck and ears. This is an allergic reaction to louse bites. When a person has head lice for the first time, itching may not occur for 4 to 6 weeks.', "Lice on scalp. You may be able to see the lice, but they're often hard to spot because they're small, avoid light and move quickly.", "Lice eggs (nits) on hair shafts. Nits stick to hair shafts and may be hard to see because they're very tiny. They're easiest to spot around the ears and the hairline of the neck. Empty nits may be easier to spot because they're lighter in color and further from the scalp. However, the presence of nits doesn't mean there are live lice.", 'Sores on the scalp, neck and shoulders. Scratching can lead to small, red bumps that may sometimes get infected with bacteria.']</t>
-  </si>
-  <si>
-    <t>['Drinking carbonated beverages', 'Drinking too much alcohol', 'Eating too much', 'Excitement or emotional stress', 'Sudden temperature changes', 'Swallowing air with chewing gum or sucking on candy']</t>
-  </si>
-  <si>
-    <t>["Early fullness during a meal. You haven't eaten much of your meal, but you already feel full and may not be able to finish eating.", 'Uncomfortable fullness after a meal. The feeling of fullness lasts longer than it should.', 'Discomfort in the upper abdomen. You feel a mild to severe pain in the area between the bottom of your breastbone and your bellybutton.', 'Burning in the upper abdomen. You feel an uncomfortable heat or burning sensation between the bottom of your breastbone and your bellybutton.', 'Bloating in the upper abdomen. You feel an uncomfortable sensation of tightness in your upper abdomen.', 'Nausea. You feel as if you want to vomit.']</t>
-  </si>
-  <si>
-    <t>['Tiny, swollen bumps where you shave, tweeze or wax', 'Small bumps that look like blisters or are filled with pus', 'Small bumps that are darker than surrounding skin (hyperpigmentation)', 'Burning or stinging', 'Itching', 'Hair in the shape of a loop because the tip of the hair curves and grows into the skin']</t>
-  </si>
-  <si>
-    <t>['Pain and tenderness', 'Inflamed skin', 'Swelling', 'Infection']</t>
-  </si>
-  <si>
-    <t>['Throbbing or cramping pain in your lower abdomen that can be intense', 'Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days', 'Dull, continuous ache', 'Pain that radiates to your lower back and thighs']</t>
-  </si>
-  <si>
-    <t>['Constipation', 'Mood changes, from depression to euphoria', 'Food cravings', 'Neck stiffness', 'Increased urination', 'Fluid retention', 'Frequent yawning']</t>
-  </si>
-  <si>
-    <t>['A puffy, white and reddish bump that appears a few minutes after the bite', 'A hard, itchy, reddish-brown bump, or multiple bumps, appearing a day or so after the bite or bites', 'Small blisters instead of hard bumps', 'Dark spots that look like bruises']</t>
-  </si>
-  <si>
-    <t>['Cause severe discomfort', 'Are associated with leg swelling, redness or skin changes', 'Are associated with muscle weakness', 'Happen frequently', "Don't improve with self-care", "Aren't associated with an obvious cause, such as strenuous exercise"]</t>
-  </si>
-  <si>
-    <t>['Blurry vision when looking at distant objects', 'The need to squint or partially close the eyelids to see clearly', 'Headaches', 'Eyestrain']</t>
-  </si>
-  <si>
-    <t>["Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer", 'Muscle tightness and spasms', 'Decreased ability to move the head', 'Headache']</t>
-  </si>
-  <si>
-    <t>["Unhealthy diet. A diet that's high in calories, lacking in fruits and vegetables, full of fast food, and laden with high-calorie beverages and oversized portions contributes to weight gain.", 'Liquid calories. People can drink many calories without feeling full, especially calories from alcohol. Other high-calorie beverages, such as sugared soft drinks, can contribute to significant weight gain.', 'Inactivity. If you have a sedentary lifestyle, you can easily take in more calories every day than you burn through exercise and routine daily activities. Looking at computer, tablet and phone screens is a sedentary activity. The number of hours spent in front of a screen is highly associated with weight gain.']</t>
-  </si>
-  <si>
-    <t>['Fear of contamination or dirt', 'Doubting and having difficulty tolerating uncertainty', 'Needing things orderly and symmetrical', 'Aggressive or horrific thoughts about losing control and harming yourself or others', 'Unwanted thoughts, including aggression, or sexual or religious subjects']</t>
-  </si>
-  <si>
-    <t>['Sense of impending doom or danger', 'Fear of loss of control or death', 'Rapid, pounding heart rate', 'Sweating', 'Trembling or shaking', 'Shortness of breath or tightness in your throat', 'Chills', 'Hot flashes', 'Nausea', 'Abdominal cramping', 'Chest pain', 'Headache', 'Dizziness, lightheadedness or faintness', 'Numbness or tingling sensation', 'Feeling of unreality or detachment']</t>
-  </si>
-  <si>
-    <t>['Redness in one or both eyes', 'Itchiness in one or both eyes', 'A gritty feeling in one or both eyes', 'A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning', 'Tearing']</t>
-  </si>
-  <si>
-    <t>["Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.", 'Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.', 'Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.']</t>
-  </si>
-  <si>
-    <t>['Tension or anxiety', 'Depressed mood', 'Crying spells', 'Mood swings and irritability or anger', 'Appetite changes and food cravings', 'Trouble falling asleep (insomnia)', 'Social withdrawal', 'Poor concentration', 'Change in libido']</t>
-  </si>
-  <si>
-    <t>['The mildest form of heat rash is called miliaria crystallina. It occurs when the opening of the sweat duct on the surface of the skin (sweat pore) is blocked. This form is marked by tiny, clear, fluid-filled bumps that break easily.', 'A type that occurs deeper in the skin is called miliaria rubra. It is sometimes called prickly heat. Signs and symptoms include small, inflamed blister-like bumps and itching or prickling in the affected area.', 'Occasionally, the inflamed bumps of miliaria rubra fill with pus. This form is called miliaria pustulosa.', 'A less common form of heat rash is called miliaria profunda. It affects the deepest layer of the skin (dermis). It causes firm, painful or itchy inflamed bumps that look like goose bumps and may break open.']</t>
-  </si>
-  <si>
-    <t>['Witnessed breathing pauses during sleep', 'Excessive daytime sleepiness', 'Difficulty concentrating', 'Morning headaches', 'Sore throat upon awakening', 'Restless sleep', 'Gasping or choking at night', 'High blood pressure', 'Chest pain at night', "Your snoring is so loud it's disrupting your partner's sleep", 'In children, poor attention span, behavioral issues or poor performance in school']</t>
-  </si>
-  <si>
-    <t>['Fear of situations in which you may be judged negatively', 'Worry about embarrassing or humiliating yourself', 'Intense fear of interacting or talking with strangers', 'Fear that others will notice that you look anxious', 'Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice', 'Avoidance of doing things or speaking to people out of fear of embarrassment', 'Avoidance of situations where you might be the center of attention', 'Anxiety in anticipation of a feared activity or event', 'Intense fear or anxiety during social situations', 'Analysis of your performance and identification of flaws in your interactions after a social situation', 'Expectation of the worst possible consequences from a negative experience during a social situation']</t>
-  </si>
-  <si>
-    <t>['Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin', 'Skin that feels warm or hot to the touch', 'Pain, tenderness and itching', 'Swelling', 'Small, fluid-filled blisters, which may break', 'Headache, fever, nausea and fatigue, if the sunburn is severe', 'Eyes that feel painful or gritty']</t>
-  </si>
-  <si>
-    <t>['Dull, aching head pain', 'Sensation of tightness or pressure across the forehead or on the sides and back of the head', 'Tenderness in the scalp, neck and shoulder muscles']</t>
-  </si>
-  <si>
-    <t>['Sudden impacts. Wrist injuries often occur when you fall forward onto your outstretched hand. This can cause sprains, strains and even fractures. A scaphoid fracture involves a bone on the thumb side of the wrist. This type of fracture may not show up on X-rays immediately after the injury.', "Repetitive stress. Any activity that involves repetitive wrist motion â€” from hitting a tennis ball or bowing a cello to driving cross-country â€” can inflame the tissues around joints or cause stress fractures, especially when you perform the movement for hours on end without a break. De Quervain's disease is a repetitive stress injury that causes pain at the base of the thumb."]</t>
-  </si>
-  <si>
-    <t>['Maintain a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.', "Stop smoking. Smoking decreases the lower esophageal sphincter's ability to function properly.", "Elevate the head of your bed. If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches. If you can't elevate your bed, you can insert a wedge between your mattress and box spring to elevate your body from the waist up. Raising your head with additional pillows isn't effective.", 'Start on your left side. When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.', "Don't lie down after a meal. Wait at least three hours after eating before lying down or going to bed.", 'Eat food slowly and chew thoroughly. Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.', 'Avoid foods and drinks that trigger reflux. Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.', 'Avoid tight-fitting clothing. Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.']</t>
-  </si>
-  <si>
-    <t>["Wash problem areas with a gentle cleanser. Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. And be gentle if you're shaving affected skin.\nAvoid certain products, such as facial scrubs, astringents and masks. They tend to irritate the skin, which can worsen acne. Too much washing and scrubbing also can irritate the skin.", 'Try over-the-counter acne products to dry excess oil and promote peeling. Look for products containing benzoyl peroxide and adapalene as the active ingredients. You might also try products containing salicylic acid, glycolic acid or alpha hydroxy acids. It may take a few weeks of using a product before you see any improvement.\nCreams are less irritating than gels or ointments. Nonprescription acne medications may cause initial side effects â€” such as redness, dryness and scaling â€” that often improve after the first month of using them.', 'Avoid irritants. Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.', 'Protect your skin from the sun. For some people, the sun worsens the discoloration that sometimes lingers after the acne has cleared. And some acne medications make you more susceptible to sunburn. Check with your doctor to see if your medication is one of these. If it is, stay out of the sun as much as possible. Regularly use a nonoily (noncomedogenic) moisturizer that includes a sunscreen.', 'Avoid friction or pressure on your skin. Protect your acne-prone skin from contact with items such as phones, helmets, tight collars or straps, and backpacks.', 'Avoid touching or picking acne-prone areas. Doing so can trigger more acne or lead to infection or scarring.', 'Shower after strenuous activities. Oil and sweat on your skin can lead to breakouts.']</t>
-  </si>
-  <si>
-    <t>['Rest. This will help your body fight infection and speed recovery.', 'Drink fluids. Continue to drink plenty of fluids.', 'Use a warm compress. A warm compress on your nose and forehead may help relieve the pressure in your sinuses.', 'Moisten your sinus cavities. Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.', 'Rinse your nasal passages. Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.']</t>
-  </si>
-  <si>
-    <t>['Sinus congestion and hay fever symptoms. These often improve with saline nasal irrigation â€” rinsing out the sinuses with a salt and water solution. You can use a neti pot or a specially designed squeeze bottle to flush out thickened mucus and irritants from your nose. However, improper use of a neti pot or other device can lead to infection.', 'Household airborne allergy symptoms. Reduce your exposure to dust mites or pet dander by frequently washing bedding and stuffed toys in hot water, maintaining low humidity, regularly using a vacuum with a fine filter such as a high-efficiency particulate air (HEPA) filter and replacing carpeting with hard flooring.', 'Mold allergy symptoms. Reduce moisture in damp areas, such as your bath and kitchen, by using ventilation fans and dehumidifiers. Fix leaks inside and outside your home.']</t>
-  </si>
-  <si>
     <t>['List key personal information, including any major stresses or recent life changes.', "Make a list of all medications, vitamins and supplements that you're taking.", 'List questions to ask your doctor.']</t>
   </si>
   <si>
@@ -653,9 +380,6 @@
   </si>
   <si>
     <t>['Soak your hands or feet. Soaking corns and calluses in warm, soapy water softens them. This can make it easier to remove the thickened skin.', "Thin thickened skin. Once you've softened the affected skin, rub the corn or callus with a pumice stone, nail file, emery board or washcloth. This helps remove a layer of toughened skin. Don't use a sharp object to trim the skin. Don't use a pumice stone if you have diabetes.", 'Use corn pads. Apply a donut-shaped foam pad to protect the area where a corn or callus formed. Be careful using nonprescription liquid corn removers or medicated corn pads. These contain salicylic acid, which can irritate healthy skin and lead to infection, especially in people with diabetes or other conditions that cause poor blood flow. You can protect healthy skin by applying petroleum jelly (Vaseline) to the area around the corn or callus before using a medicated pad.', 'Moisturize your skin. Use moisturizer on your hands and feet regularly.', 'Wear comfortable shoes and socks. Wear well-fitting, cushioned shoes and socks, at least until your corn or callus disappears.']</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>["Stick to your treatment plan. Don't skip psychotherapy sessions or appointments. Even if you're feeling well, don't skip your medications. If you stop, depression symptoms may come back, and you could also experience withdrawal-like symptoms. Recognize that it will take time to feel better.", 'Learn about depression. Education about your condition can empower you and motivate you to stick to your treatment plan. Encourage your family to learn about depression to help them understand and support you.', 'Pay attention to warning signs. Work with your doctor or therapist to learn what might trigger your depression symptoms. Make a plan so that you know what to do if your symptoms get worse. Contact your doctor or therapist if you notice any changes in symptoms or how you feel. Ask relatives or friends to help watch for warning signs.', 'Avoid alcohol and recreational drugs. It may seem like alcohol or drugs lessen depression symptoms, but in the long run they generally worsen symptoms and make depression harder to treat. Talk with your doctor or therapist if you need help with alcohol or substance use.', "Take care of yourself. Eat healthy, be physically active and get plenty of sleep. Consider walking, jogging, swimming, gardening or another activity that you enjoy. Sleeping well is important for both your physical and mental well-being. If you're having trouble sleeping, talk to your doctor about what you can do."]</t>
@@ -4711,12 +4435,179 @@
 What is your occupation? Does it require a lot of wrist motion?
 Do you participate in any sports or hobbies that put stress on your wrist?</t>
   </si>
+  <si>
+    <t>Cavities require professional treatment by dentists.
+However, several home remedies can strengthen tooth enamel to reverse early demineralization and prevent tooth decay. This process is known as remineralization, which prevents a cavity from forming.
+Good oral hygiene like regular brushing, flossing, and dental cleanings with a dentist can prevent and reverse cavities.
+Using fluoride is a tried and tested way to prevent decay and cavities. High-fluoride toothpaste or direct fluoride application helps remineralize the tooth enamel and prevent cavities.
+Results from a 2018 studyTrusted Source indicate that high fluoride toothpaste more effectively prevents caries than toothpaste containing low fluoride.
+A 2020 review also found that sodium fluoride mouth rinse is the most effective method among the self-applied fluoride methods reviewed in the study.
+U.S. cities and towns also recognize the importance of fluoride. Many cities have embraced community water fluoridation for over 75 yearsTrusted Source. This is the most cost-effective strategy that has reduced tooth decay by 25 percentTrusted Source in children and adults.
+However, some people may prefer natural home remedies over products containing fluoride. Here are some home remedies to prevent tooth cavities.
+1. Oil pulling
+Oil pulling originated in an ancient system of alternative medicine called Ayurveda. It involves swishing a tablespoon of sesame or coconut oil around the mouth for around 20 minutes, then spitting it out.
+While some claims about oil pulling are not scientifically validated, research indicates that it can improve tooth health. A 2017 reviewTrusted Source noted that it reduces the bacteria in the mouth, plaque, and inflammation in the gums.
+A 2020 review indicated oil pulling with coconut oil might help improve dental health and oral hygiene. However, researchers noted further studies are needed to determine the effectiveness of the practice.
+2. Aloe vera
+Aloe vera tooth gel may help fight off bacteria that cause cavities. The antibacterial effect of this gel prevents the buildup of bacteria in the mouth, according to a 2019 studyTrusted Source.
+A 2017 studyTrusted Source found the use of aloe vera with tea tree oil as an effective cavity disinfectant, with comparable results to traditional disinfectants called chlorhexidine.
+While more research is needed, aloe vera’s antibacterial properties may help reduce dental cavities by reducing harmful bacteria in the mouth.
+3. Avoid phytic acid
+Some people think that phytic acid, considered an antinutrient, contributes to tooth decay because it hinders the absorption of many minerals and their bioavailability. This includes minerals like iron, zinc, and calcium.
+Some believe that cutting it out of the diet can prevent tooth decay and cavities. Phytic acid is most commonly found in cereals and legumes, including the following:
+maize
+wheat
+rice
+rye
+kidney beans
+haricot beans
+pinto beans
+navy beans
+blackeye beans
+broad beans
+However, food industries have taken measures to reduce their phytic acid content to enhance the bioavailability of micronutrients in food grains, per research published in 2015Trusted Source.
+While phytic acid’s antinutrient properties are proven by science, there is no research regarding its effects on the minerals in tooth enamel.
+4. Vitamins and minerals
+Minerals like calcium, phosphorus, and magnesium make up the structure of our teeth. Vitamin D is crucial in:
+forming healthy teeth
+protecting against dental caries
+releasing calcium in the saliva to mineralize teeth enamel
+A 2020 article indicated that having inadequate minerals can lead to absorption problems, increased tendency to bleed, and tooth loss.
+Vitamin D is also crucial in oral health. It delays the onset and progression of dental cavities. A 2021 study found that children with dental caries have less vitamin D levels in their blood and low calcium levels in their saliva.
+In addition, taking vitamin D without magnesium leads to a soft enamel, which cannot resist the acids in the mouth, resulting in tooth decay.
+5. Avoid sugary foods and drinks
+Diet, especially the consumption of free sugars, is among the leading causes of cavities. Sugar mixes with bacteria in the mouth and forms an acid, which wears down tooth enamel.
+The WHO recommends people limit their intake of free sugars. Aside from the amount, a 2017 studyTrusted Source found that consuming free sugars before bedtime increases the risk of dental caries.
+6. Eat licorice root
+Licorice root has antibacterial properties that can target S. mutans, the bacteria causing cavities.
+A 2019 studyTrusted Source found that the antibacterial properties of licorice root extract are comparable to a chlorhexidine mouthwash and more potent than a fluoride mouthwash.
+A 2021 study made a similar comparison and found that licorice extract has antimicrobial properties.
+Learn more about the benefits of licorice root here.
+7. Sugar-free gum
+Results of a 2015 study indicate that chewing sugar-free gum after meals reduced levels of bacteria that damage enamel.
+Having less of this bacteria may lead to stronger enamel that is better equipped to withstand decay.
+8. Eggshell
+Eggshells contain calcium that a person can use to help remineralize the tooth enamel. It can also serve as an abrasive cleaner to remove plaques. A 2018 studyTrusted Source on modified eggshell with titanium oxide composite protects teeth against acidic substances.</t>
+  </si>
+  <si>
+    <t>Irrespective of the type of dengue fever you contact, there is no medical remedy. You need to resort to home remedies and get the dengue treatment at home. Here are some of the popular and effective home remedies you can follow in case of dengue fever.
+1. Drink Sufficient Water
+Excessive sweating, exertion during dengue fever can lead to extreme dehydration. As a result, ensure that you take a lot of fluids and stay well hydrated. Drink water at frequent intervals to keep your body well hydrated. Staying hydrated also reduces the symptoms of headaches, as well as muscle cramps. When you have dengue fever, the toxins in your body complicate the impact of the viral pathogens. Water also helps in flushing out these excess toxins from your body to help you recover. With the availability of a number of RO water purifier systems in India, you can easily install a purifier at home, ensuring that you avoid any other source of water. RO water is free of contaminants and reduces the chances of contacting any other diseases.
+2. Juice of Papaya Leaves
+Another very effective remedy is drinking papaya leaf juice. Papaya leaves are known to be the natural cure for dengue fever. The leaves have a mix of nutrients and organic compounds which help in increasing your platelet count. Papaya leaf juice for dengue also have a high level of vitamin C which stimulate the immune system whereas the antioxidants help in reducing the stress and remove toxins from the body. All you need to do is crush the leaves and strain the juice from the crushed leaves.
+3. Chew Basil Leaves
+Basil leaves are miraculous herbs that not only help during dengue fever, but also improve your overall immunity. Chewing 5-6 basil leaves boosts your immunity and has been recommended as an effective Ayurvedic treatment for dengue fever. Basil leaves have essential oils with natural insecticidal properties which keep mosquitoes at bay.
+4. Neem Leaves
+Neem leaves have medicinal properties, which is the reason why they are recommended for a variety of ailments. Steep neem leaves and drink the brew to increase platelet and white blood cell count. Properly brewed neem leaves also improve the immune system if suffering from dengue.
+5. Orange Juice
+Oranges are rich in antioxidants and vitamins which help in treating the secondary symptoms of dengue. Orange juice also helps in eliminating dengue virus. The miraculous drink promotes antibodies in the immune system, increases urination, thereby releasing toxins from the body. Orange juice also repairs your body cells as it has Vitamin C which is crucial in creating collagen.</t>
+  </si>
+  <si>
+    <t>If you’re experiencing constipation, the following quick treatments can help induce a bowel movement in as little as a few hours.
+1. Take a fiber supplement
+Fiber supplements are readily available and effectiveTrusted Source at inducing bowel movements if a low fiber diet is the cause of your constipation. They work by adding bulk, or volume, to your stool. This helps push stool through your intestines and out of your body.
+You can buy fiber supplements in stores or online. Here are a few common ones:
+calcium polycarbophil (FiberCon)
+psyllium (Metamucil, Konsyl)
+methylcellulose (Citrucel)
+2. Eat foods for constipation relief
+Eating foods that are high in fiber can help you find relief from constipation, according to the National Institute of Diabetes and Digestive and Kidney Diseases (NIDDK)Trusted Source.
+Foods that are high in fiber can include:
+oats
+whole grain bread or cereal
+whole wheat pasta
+fibrous fruits, such as apples and bananas
+fibrous vegetables, such as broccoli, carrots, and leafy greens
+brown rice
+beans and lentils
+split peas
+nuts, such as walnuts, pecans, and almonds
+Be sure to drink lots of water with these foods, as it will further help push your stool through your system.
+Additionally, it’s a good idea to avoid foods that could potentially make constipation worseTrusted Source, such as:
+chips and other low fiber snacks
+meat
+prepared foods, such as boxed and frozen meals
+fast food items
+processed foods, such as certain frozen meals, deli meats, and hot dogs
+3. Drink a glass of water
+Proper hydration is necessary for regular bowel movements. Researchers recommend about 1.8 litersTrusted Source — or about seven to eight 8-ounce glasses — of clear liquid per day. The exact amount your body needs can depend on your size, sex, and whether or not you’re pregnant or breastfeeding. If you’re constipated and haven’t been drinking an adequate amount of water, consuming a large glass of water or other clear liquid may trigger a bowel movement.
+4. Take a laxative stimulant
+Laxative stimulants are designed to force a bowel movement by squeezing the intestines and may take up to 6 to 12 hours to take effect. You can get stimulants over the counter (OTC) at your local pharmacy. Some popular options include:
+bisacodyl (Dulcolax, Ducodyl, Correctol)
+senna sennosides (Senokot)
+According to the NIDDKTrusted Source, laxative stimulants are primarily recommended for severe constipation that doesn’t respond to other treatment methods. You also shouldn’t use laxatives until possible secondary causes of constipation have been ruled out.
+5. Take an osmotic laxative
+The way osmotic laxatives work is slightly differently from how stimulant laxatives work. They’re designed to help move fluids through the colon. Some examples include:
+magnesium hydroxide (Phillips Milk of Magnesia)
+polyethylene glycol (PEG) (MiraLAX)
+magnesium citrate
+lactulose (Kristalose)
+It’s important to keep in mind that osmotic laxatives tend to work a bit more slowly than stimulant laxatives. You can expect them to work within 2 to 3 days.
+With a doctor’s prescription, you can obtain higher strength PEG (GoLYTELY, NuLYTELY).
+6. Try a lubricant laxative
+Lubricant laxatives such as mineral oilTrusted Source help by adding a slick coat to your intestines’ walls and the stool mass. This allows stool to retain waterTrusted Source and move through your colon and out of your body more easily.
+7. Use a stool softener
+One common cause of constipation is dehydration, which can cause hard stool. Using a stool softener, such as docusate sodium (Colace) or docusate calcium (Surfak), can moisten the stool by pulling water from your intestines. This allows the stool to exit your body more easily.
+8. Try an enema
+There are several types of enemas that you can try. Enemas work by softening stool enough to produce a bowel movement. Enemas use liquid to push stools out of the rectum. They can be purchased at a pharmacy or online.
+Some common types of enemas include:
+sodium phosphate (Fleet)
+soapsuds
+tap water enemas
+9. Try a suppository
+Some treatments for constipation are available as rectal suppositories. These suppositories are inserted into the rectum to help encourage bowel movements by softening stool.
+Common types include glycerin or bisacodyl suppositories, which you can find at your local pharmacy.
+10. Get in a squat position to poop
+Bring a small footstool into your bathroom the next time you need to poop. Placing your feet on a stool in front of the toilet while you poop — so your body is essentially in a squatting position instead of in a seated position — can help you pass stool without straining.
+11. Get some exercise
+Light exercise, such as walking, yoga, or jogging, can encourage bowel movements by increasing blood flow throughout your abdomen.
+12. Try colonic massage
+Manually massaging the colon can help stimulate the bowels for people whose constipation is caused by the slow movement of stool through the colon. A 2021 study suggested that an automatic abdominal massage device helped reduce stool transit time in people with chronic constipation.
+13. Try natural remedies
+Some natural remedies, such as consuming probiotics, may be helpful in treating and preventing constipation, with some studiesTrusted Source noting increased stool frequency after taking these supplements. While considered safe for most people, there are certain instances in which probiotics may beTrusted Source harmful. For instance, they typically shouldn’t be used in immunocompromised individuals.
+You should also talk with a doctor before taking any herbs or teas for constipation relief. While 2019 researchTrusted Source suggests that some herbal combinations, such as clover, fennel, and senna, may help constipation, herbal supplements may interact with other OTC and prescription medications you may take.</t>
+  </si>
+  <si>
+    <t>Maintain a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus
+Stop smoking. Smoking decreases the lower esophageal sphincter's ability to function properly
+Elevate the head of your bed. If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches. If you can't elevate your bed, you can insert a wedge between your mattress and box spring to elevate your body from the waist up. Raising your head with additional pillows isn't effective
+Start on your left side. When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
+Don't lie down after a meal. Wait at least three hours after eating before lying down or going to bed.
+Eat food slowly and chew thoroughly. Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
+Avoid foods and drinks that trigger reflux. Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
+Avoid tight-fitting clothing. Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
+  </si>
+  <si>
+    <t>Wash problem areas with a gentle cleanser. Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. And be gentle if you're shaving affected skin. Avoid certain products, such as facial scrubs, astringents and masks. They tend to irritate the skin, which can worsen acne. Too much washing and scrubbing also can irritate the skin.
+Try over-the-counter acne products to dry excess oil and promote peeling. Look for products containing benzoyl peroxide and adapalene as the active ingredients. You might also try products containing salicylic acid, glycolic acid or alpha hydroxy acids. It may take a few weeks of using a product before you see any improvement. Creams are less irritating than gels or ointments. Nonprescription acne medications may cause initial side effects such as redness, dryness and scaling that often improve after the first month of using them.
+Avoid irritants. Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
+Protect your skin from the sun. For some people, the sun worsens the discoloration that sometimes lingers after the acne has cleared. And some acne medications make you more susceptible to sunburn. Check with your doctor to see if your medication is one of these. If it is, stay out of the sun as much as possible. Regularly use a nonoily (noncomedogenic) moisturizer that includes a sunscreen.
+Avoid friction or pressure on your skin. Protect your acne-prone skin from contact with items such as phones, helmets, tight collars or straps, and backpacks.
+Avoid touching or picking acne-prone areas. Doing so can trigger more acne or lead to infection or scarring.', 'Shower after strenuous activities. Oil and sweat on your skin can lead to breakouts.</t>
+  </si>
+  <si>
+    <t>Rest. This will help your body fight infection and speed recovery.
+Drink fluids. Continue to drink plenty of fluids.
+Use a warm compress. A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
+Moisten your sinus cavities. Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
+Rinse your nasal passages. Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.</t>
+  </si>
+  <si>
+    <t>Sinus congestion and hay fever symptoms. These often improve with saline nasal irrigation rinsing out the sinuses with a salt and water solution. You can use a neti pot or a specially designed squeeze bottle to flush out thickened mucus and irritants from your nose. However, improper use of a neti pot or other device can lead to infection.
+Household airborne allergy symptoms. Reduce your exposure to dust mites or pet dander by frequently washing bedding and stuffed toys in hot water, maintaining low humidity, regularly using a vacuum with a fine filter such as a high-efficiency particulate air (HEPA) filter and replacing carpeting with hard flooring.
+Mold allergy symptoms. Reduce moisture in damp areas, such as your bath and kitchen, by using ventilation fans and dehumidifiers. Fix leaks inside and outside your home.</t>
+  </si>
+  <si>
+    <t>List key personal information, including any major stresses or recent life changes.
+Make a list of all medications, vitamins and supplements that you're taking.
+List questions to ask your doctor.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4779,12 +4670,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4792,6 +4684,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4838,7 +4738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4870,9 +4770,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4904,6 +4822,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5079,1400 +5015,928 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J2" t="s">
-        <v>282</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
         <v>203</v>
       </c>
-      <c r="I3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J3" t="s">
-        <v>283</v>
-      </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J4" t="s">
-        <v>284</v>
+      <c r="F45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" t="s">
-        <v>285</v>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J6" t="s">
-        <v>286</v>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" t="s">
-        <v>207</v>
-      </c>
-      <c r="I7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" t="s">
-        <v>248</v>
-      </c>
-      <c r="J9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" t="s">
-        <v>209</v>
-      </c>
-      <c r="I10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" t="s">
-        <v>210</v>
-      </c>
-      <c r="I11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" t="s">
-        <v>253</v>
-      </c>
-      <c r="J12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" t="s">
-        <v>254</v>
-      </c>
-      <c r="J13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" t="s">
-        <v>255</v>
-      </c>
-      <c r="J14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" t="s">
-        <v>214</v>
-      </c>
-      <c r="J15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" t="s">
-        <v>215</v>
-      </c>
-      <c r="I16" t="s">
-        <v>256</v>
-      </c>
-      <c r="J16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" t="s">
-        <v>172</v>
-      </c>
-      <c r="H17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" t="s">
-        <v>257</v>
-      </c>
-      <c r="J17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" t="s">
-        <v>212</v>
-      </c>
-      <c r="I18" t="s">
-        <v>254</v>
-      </c>
-      <c r="J18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" t="s">
-        <v>216</v>
-      </c>
-      <c r="I19" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" t="s">
-        <v>259</v>
-      </c>
-      <c r="J20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" t="s">
-        <v>175</v>
-      </c>
-      <c r="H21" t="s">
-        <v>217</v>
-      </c>
-      <c r="I21" t="s">
-        <v>260</v>
-      </c>
-      <c r="J21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I22" t="s">
-        <v>261</v>
-      </c>
-      <c r="J22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" t="s">
-        <v>219</v>
-      </c>
-      <c r="I23" t="s">
-        <v>262</v>
-      </c>
-      <c r="J23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" t="s">
-        <v>220</v>
-      </c>
-      <c r="J24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I25" t="s">
-        <v>263</v>
-      </c>
-      <c r="J25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" t="s">
-        <v>222</v>
-      </c>
-      <c r="I26" t="s">
-        <v>264</v>
-      </c>
-      <c r="J26" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" t="s">
-        <v>223</v>
-      </c>
-      <c r="I27" t="s">
-        <v>265</v>
-      </c>
-      <c r="J27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" t="s">
-        <v>182</v>
-      </c>
-      <c r="H28" t="s">
-        <v>224</v>
-      </c>
-      <c r="I28" t="s">
-        <v>266</v>
-      </c>
-      <c r="J28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" t="s">
-        <v>225</v>
-      </c>
-      <c r="I29" t="s">
-        <v>267</v>
-      </c>
-      <c r="J29" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" t="s">
-        <v>184</v>
-      </c>
-      <c r="H30" t="s">
-        <v>226</v>
-      </c>
-      <c r="I30" t="s">
-        <v>268</v>
-      </c>
-      <c r="J30" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" t="s">
-        <v>184</v>
-      </c>
-      <c r="H31" t="s">
-        <v>226</v>
-      </c>
-      <c r="I31" t="s">
-        <v>268</v>
-      </c>
-      <c r="J31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" t="s">
-        <v>185</v>
-      </c>
-      <c r="H32" t="s">
-        <v>227</v>
-      </c>
-      <c r="J32" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" t="s">
-        <v>185</v>
-      </c>
-      <c r="H33" t="s">
-        <v>227</v>
-      </c>
-      <c r="J33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H34" t="s">
-        <v>228</v>
-      </c>
-      <c r="I34" t="s">
-        <v>269</v>
-      </c>
-      <c r="J34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" t="s">
         <v>187</v>
       </c>
-      <c r="H35" t="s">
-        <v>229</v>
-      </c>
-      <c r="I35" t="s">
-        <v>270</v>
-      </c>
-      <c r="J35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" t="s">
-        <v>230</v>
-      </c>
-      <c r="I36" t="s">
-        <v>271</v>
-      </c>
-      <c r="J36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" t="s">
-        <v>189</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G48" t="s">
         <v>231</v>
-      </c>
-      <c r="I37" t="s">
-        <v>272</v>
-      </c>
-      <c r="J37" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" t="s">
-        <v>273</v>
-      </c>
-      <c r="J38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" t="s">
-        <v>233</v>
-      </c>
-      <c r="J39" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" t="s">
-        <v>192</v>
-      </c>
-      <c r="H40" t="s">
-        <v>234</v>
-      </c>
-      <c r="I40" t="s">
-        <v>274</v>
-      </c>
-      <c r="J40" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" t="s">
-        <v>149</v>
-      </c>
-      <c r="G41" t="s">
-        <v>193</v>
-      </c>
-      <c r="H41" t="s">
-        <v>235</v>
-      </c>
-      <c r="I41" t="s">
-        <v>275</v>
-      </c>
-      <c r="J41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" t="s">
-        <v>194</v>
-      </c>
-      <c r="H42" t="s">
-        <v>236</v>
-      </c>
-      <c r="I42" t="s">
-        <v>276</v>
-      </c>
-      <c r="J42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" t="s">
-        <v>195</v>
-      </c>
-      <c r="H43" t="s">
-        <v>237</v>
-      </c>
-      <c r="I43" t="s">
-        <v>277</v>
-      </c>
-      <c r="J43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" t="s">
-        <v>238</v>
-      </c>
-      <c r="I44" t="s">
-        <v>278</v>
-      </c>
-      <c r="J44" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" t="s">
-        <v>153</v>
-      </c>
-      <c r="G45" t="s">
-        <v>197</v>
-      </c>
-      <c r="H45" t="s">
-        <v>239</v>
-      </c>
-      <c r="I45" t="s">
-        <v>279</v>
-      </c>
-      <c r="J45" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" t="s">
-        <v>240</v>
-      </c>
-      <c r="J46" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" t="s">
-        <v>121</v>
-      </c>
-      <c r="G47" t="s">
-        <v>165</v>
-      </c>
-      <c r="H47" t="s">
-        <v>209</v>
-      </c>
-      <c r="I47" t="s">
-        <v>251</v>
-      </c>
-      <c r="J47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" t="s">
-        <v>199</v>
-      </c>
-      <c r="H48" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" t="s">
-        <v>280</v>
-      </c>
-      <c r="J48" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" t="s">
-        <v>200</v>
-      </c>
-      <c r="H49" t="s">
-        <v>242</v>
-      </c>
-      <c r="J49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" t="s">
-        <v>201</v>
-      </c>
-      <c r="H50" t="s">
-        <v>243</v>
-      </c>
-      <c r="I50" t="s">
-        <v>281</v>
-      </c>
-      <c r="J50" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
